--- a/data/raw/comptages_terrain/meteo/us_med_pnmcca_observatoire_comptage_terrain_meteo_2022-06-21.xlsx
+++ b/data/raw/comptages_terrain/meteo/us_med_pnmcca_observatoire_comptage_terrain_meteo_2022-06-21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Meteo" sheetId="3" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>F0</t>
   </si>
   <si>
-    <t>Petit Lotu</t>
+    <t>Mezzanu</t>
   </si>
   <si>
     <t>Fiume Santu</t>
@@ -1243,7 +1243,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
